--- a/InputFiles/TC02_Canine_Filter_Diagnosis-Glioma.xlsx
+++ b/InputFiles/TC02_Canine_Filter_Diagnosis-Glioma.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\yes breed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9C6117-2EE6-455D-B34A-2F8B272CA3F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B891D9B8-5E57-45BE-8828-9F2274179C0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10" windowWidth="19200" windowHeight="10190" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="startup" sheetId="1" r:id="rId1"/>
@@ -90,25 +90,6 @@
         coalesce(samp.sample_preservation, '') AS `Sample Preservation`</t>
   </si>
   <si>
-    <t xml:space="preserve">
-MATCH (f:file)--&gt;(parent)
-WITH DISTINCT f, parent
-MATCH (f)-[*]-&gt;(c:case)&lt;--(demo:demographic)
- MATCH (s:study)&lt;-[*]-(c)&lt;--(diag:diagnosis)
-WHERE diag.disease_term IN ['Glioma']
-WITH DISTINCT f, parent, c, demo, diag, s
-RETURN coalesce(f.file_name, '') AS `File Name`,
-        coalesce(f.file_type, '') AS `File Type`,
-        coalesce(labels(parent)[0], '') AS `Association`,
-        coalesce(f.file_description, '') AS `Description`,
-        coalesce(f.file_format, '') AS `Format`,
-        coalesce(f.file_size, '') AS `Size`,
-        coalesce(c.case_id, '') AS `Case ID`,
-        coalesce(demo.breed,'') AS Breed , 
-        coalesce(diag.disease_term,'') AS Diagnosis , 
-        coalesce(s.clinical_study_designation,'') AS `Study Code`</t>
-  </si>
-  <si>
     <t>MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic)
 MATCH (c)&lt;--(diag:diagnosis)
 OPTIONAL MATCH (samp:sample)--&gt;(c)
@@ -133,6 +114,23 @@
   </si>
   <si>
     <t>TC02_Canine_Filter_Diagnosis-Glioma_WebData.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MATCH (f:file)--&gt;(parent)
+WITH DISTINCT f, parent
+MATCH (f)-[*]-&gt;(c:case)&lt;--(demo:demographic)
+ MATCH (s:study)&lt;-[*]-(c)&lt;--(diag:diagnosis)
+WHERE diag.disease_term IN ['Glioma']
+WITH DISTINCT f, parent, c, demo, diag, s
+RETURN coalesce(f.file_name, '') AS `File Name`, 
+        coalesce(labels(parent)[0], '') AS `Association`,
+        coalesce(f.file_description, '') AS `Description`,
+        coalesce(f.file_format, '') AS `Format`,
+        coalesce(f.file_size, '') AS `Size`,
+        coalesce(c.case_id, '') AS `Case ID`, 
+        coalesce(diag.disease_term,'') AS Diagnosis , 
+        coalesce(s.clinical_study_designation,'') AS `Study Code`</t>
   </si>
 </sst>
 </file>
@@ -505,7 +503,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -539,16 +537,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
         <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="246.5" x14ac:dyDescent="0.35">
@@ -562,10 +560,10 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
         <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="246.5" x14ac:dyDescent="0.35">
@@ -573,16 +571,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
         <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/InputFiles/TC02_Canine_Filter_Diagnosis-Glioma.xlsx
+++ b/InputFiles/TC02_Canine_Filter_Diagnosis-Glioma.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\Commons_Automation\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohilz2\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B891D9B8-5E57-45BE-8828-9F2274179C0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4EE1B50-41A0-4D47-8FD6-B92EB2762F78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="startup" sheetId="1" r:id="rId1"/>
@@ -90,6 +90,29 @@
         coalesce(samp.sample_preservation, '') AS `Sample Preservation`</t>
   </si>
   <si>
+    <t>TC02_Canine_Filter_Diagnosis-Glioma_Neo4jData.xlsx</t>
+  </si>
+  <si>
+    <t>TC02_Canine_Filter_Diagnosis-Glioma_WebData.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MATCH (f:file)--&gt;(parent)
+WITH DISTINCT f, parent
+MATCH (f)-[*]-&gt;(c:case)&lt;--(demo:demographic)
+ MATCH (s:study)&lt;-[*]-(c)&lt;--(diag:diagnosis)
+WHERE diag.disease_term IN ['Glioma']
+WITH DISTINCT f, parent, c, demo, diag, s
+RETURN coalesce(f.file_name, '') AS `File Name`, 
+        coalesce(labels(parent)[0], '') AS `Association`,
+        coalesce(f.file_description, '') AS `Description`,
+        coalesce(f.file_format, '') AS `Format`,
+        coalesce(f.file_size, '') AS `Size`,
+        coalesce(c.case_id, '') AS `Case ID`, 
+        coalesce(diag.disease_term,'') AS Diagnosis , 
+        coalesce(s.clinical_study_designation,'') AS `Study Code`</t>
+  </si>
+  <si>
     <t>MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic)
 MATCH (c)&lt;--(diag:diagnosis)
 OPTIONAL MATCH (samp:sample)--&gt;(c)
@@ -106,31 +129,7 @@
         coalesce(demo.sex, '') AS Sex ,
         coalesce(demo.neutered_indicator, '') AS `Neutered Status`,
         coalesce(demo.weight, '') AS `Weight (kg)`,
-        coalesce(diag.best_response, '') AS `Response to Treatment`,
-        coalesce(co.cohort_description, '') AS `Cohort`</t>
-  </si>
-  <si>
-    <t>TC02_Canine_Filter_Diagnosis-Glioma_Neo4jData.xlsx</t>
-  </si>
-  <si>
-    <t>TC02_Canine_Filter_Diagnosis-Glioma_WebData.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-MATCH (f:file)--&gt;(parent)
-WITH DISTINCT f, parent
-MATCH (f)-[*]-&gt;(c:case)&lt;--(demo:demographic)
- MATCH (s:study)&lt;-[*]-(c)&lt;--(diag:diagnosis)
-WHERE diag.disease_term IN ['Glioma']
-WITH DISTINCT f, parent, c, demo, diag, s
-RETURN coalesce(f.file_name, '') AS `File Name`, 
-        coalesce(labels(parent)[0], '') AS `Association`,
-        coalesce(f.file_description, '') AS `Description`,
-        coalesce(f.file_format, '') AS `Format`,
-        coalesce(f.file_size, '') AS `Size`,
-        coalesce(c.case_id, '') AS `Case ID`, 
-        coalesce(diag.disease_term,'') AS Diagnosis , 
-        coalesce(s.clinical_study_designation,'') AS `Study Code`</t>
+        coalesce(diag.best_response, '') AS `Response to Treatment`</t>
   </si>
 </sst>
 </file>
@@ -502,20 +501,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="87.6328125" customWidth="1"/>
-    <col min="3" max="3" width="75.81640625" customWidth="1"/>
-    <col min="4" max="4" width="70.26953125" customWidth="1"/>
-    <col min="5" max="5" width="28.54296875" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="87.6640625" customWidth="1"/>
+    <col min="3" max="3" width="75.77734375" customWidth="1"/>
+    <col min="4" max="4" width="70.21875" customWidth="1"/>
+    <col min="5" max="5" width="28.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -532,24 +531,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="261" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="3" spans="1:5" ht="246.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -560,27 +559,27 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="4" spans="1:5" ht="246.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
         <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/InputFiles/TC02_Canine_Filter_Diagnosis-Glioma.xlsx
+++ b/InputFiles/TC02_Canine_Filter_Diagnosis-Glioma.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohilz2\Commons_Automation\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4EE1B50-41A0-4D47-8FD6-B92EB2762F78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C04C315-1ECE-4ACB-BB82-48AEAFAB0220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="startup" sheetId="1" r:id="rId1"/>
@@ -57,22 +57,6 @@
     <t>FilesTab</t>
   </si>
   <si>
-    <t>MATCH (s:study)
-  WITH COLLECT(DISTINCT(s.clinical_study_designation)) AS all_studies
-  MATCH (d:demographic) WITH COLLECT(DISTINCT(d.breed)) AS all_breeds, COLLECT(DISTINCT(d.sex)) AS all_sexes, all_studies
-  MATCH (d:diagnosis)
-  WITH COLLECT(DISTINCT(d.disease_term)) AS all_diseases, all_breeds, all_sexes, all_studies
-  MATCH (p:program)&lt;-[*]-(s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic), (c)&lt;--(diag:diagnosis)
-    WHERE diag.disease_term IN ['Glioma'] 
-  OPTIONAL MATCH (f:file)-[*]-&gt;(c)
-  OPTIONAL MATCH (samp:sample)-[*]-&gt;(c)
-  WITH DISTINCT c AS c, p, s, demo, diag, f, samp
-  RETURN count(DISTINCT(f)) as number_of_files ,
-             count(DISTINCT(samp)) as number_of_sample ,
-             count(DISTINCT(c.case_id)) as number_of_cases ,
-             count(DISTINCT(s.clinical_study_designation)) as number_of_study</t>
-  </si>
-  <si>
     <t>MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic), (samp:sample)--&gt;(c)&lt;--(diag:diagnosis) 
 WHERE diag.disease_term IN ['Glioma']
 WITH DISTINCT samp AS samp, c, demo, diag
@@ -117,7 +101,7 @@
 MATCH (c)&lt;--(diag:diagnosis)
 OPTIONAL MATCH (samp:sample)--&gt;(c)
 OPTIONAL MATCH (co:cohort)&lt;-[*]-(c)
-WITH DISTINCT c, s, demo, diag, co
+ WITH DISTINCT c, s, demo, diag, co, demo.patient_age_at_enrollment AS age, demo.weight as weight
 WHERE diag.disease_term IN ['Glioma']
 RETURN  coalesce(c.case_id, '') AS `Case ID` ,
         coalesce(s.clinical_study_designation, '') AS `Study Code` ,
@@ -125,11 +109,30 @@
         coalesce(demo.breed, '') AS Breed ,
         coalesce(diag.disease_term, '') AS Diagnosis ,
         coalesce(diag.stage_of_disease, '') AS `Stage of Disease` ,
-        coalesce(demo.patient_age_at_enrollment, '') AS Age ,
-        coalesce(demo.sex, '') AS Sex ,
-        coalesce(demo.neutered_indicator, '') AS `Neutered Status`,
-        coalesce(demo.weight, '') AS `Weight (kg)`,
-        coalesce(diag.best_response, '') AS `Response to Treatment`</t>
+  coalesce(CASE age % 1 WHEN 0 THEN apoc.convert.toInteger(age) ELSE age END, '') AS Age,
+       coalesce(demo.sex, '') AS Sex,
+       coalesce(demo.neutered_indicator, '') AS `Neutered Status`,
+coalesce(CASE weight % 1 WHEN 0 THEN apoc.convert.toInteger(weight) ELSE weight END, '') AS `Weight (kg)`,
+       coalesce(diag.best_response, '') AS `Response to Treatment`,
+       coalesce(co.cohort_description, '') AS `Cohort`
+order by c.case_id asc
+limit 30</t>
+  </si>
+  <si>
+    <t>MATCH (p:program)&lt;--(s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic)
+OPTIONAL MATCH (samp:sample)--&gt;(c)
+OPTIONAL MATCH (diag:diagnosis)--&gt;(c)
+OPTIONAL MATCH (f:file)-[*]-&gt;(c)
+OPTIONAL MATCH (sf:file)--&gt;(s)
+WITH DISTINCT f, sf, samp AS samp, c, demo, diag, s, p
+  WHERE diag.disease_term IN ['Glioma'] 
+RETURN  
+    count(distinct p) AS Programs,
+    count(distinct s) AS Studies,
+    count(distinct c) AS Cases,
+    count(distinct samp) AS Samples,
+    count(distinct f) AS `Case Files`,
+    count(distinct sf) AS `Study Files`</t>
   </si>
 </sst>
 </file>
@@ -501,20 +504,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="87.6640625" customWidth="1"/>
-    <col min="3" max="3" width="75.77734375" customWidth="1"/>
-    <col min="4" max="4" width="70.21875" customWidth="1"/>
-    <col min="5" max="5" width="28.5546875" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="87.7109375" customWidth="1"/>
+    <col min="3" max="3" width="75.7109375" customWidth="1"/>
+    <col min="4" max="4" width="70.28515625" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -531,55 +534,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="330" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="3" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="4" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
         <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/InputFiles/TC02_Canine_Filter_Diagnosis-Glioma.xlsx
+++ b/InputFiles/TC02_Canine_Filter_Diagnosis-Glioma.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\Commons_Automation\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohilz2\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C04C315-1ECE-4ACB-BB82-48AEAFAB0220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7B54E6-65A1-406D-BAEC-90E1D341F0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="16354" yWindow="-4860" windowWidth="33120" windowHeight="18120" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="startup" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>WebExcel</t>
   </si>
@@ -57,66 +57,10 @@
     <t>FilesTab</t>
   </si>
   <si>
-    <t>MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic), (samp:sample)--&gt;(c)&lt;--(diag:diagnosis) 
-WHERE diag.disease_term IN ['Glioma']
-WITH DISTINCT samp AS samp, c, demo, diag
-RETURN  coalesce(samp.sample_id, '') AS `Sample ID`, 
-        coalesce(c.case_id, '') AS `Case ID`, 
-        coalesce(demo.breed,'') AS Breed , 
-        coalesce(diag.disease_term,'') AS Diagnosis , 
-        coalesce(samp.sample_site, '') AS `Sample Site`,
-        coalesce(samp.summarized_sample_type, '') AS `Sample Type`,
-        coalesce(samp.specific_sample_pathology, '') AS `Pathology/Morphology`,
-        coalesce(samp.tumor_grade, '') AS `Tumor Grade`,
-        coalesce(samp.sample_chronology, '') AS `Sample Chronology`,
-        coalesce(samp.percentage_tumor, '') AS `Percentage Tumor`,
-        coalesce(samp.necropsy_sample, '') AS `Necropsy Sample`,
-        coalesce(samp.sample_preservation, '') AS `Sample Preservation`</t>
-  </si>
-  <si>
     <t>TC02_Canine_Filter_Diagnosis-Glioma_Neo4jData.xlsx</t>
   </si>
   <si>
     <t>TC02_Canine_Filter_Diagnosis-Glioma_WebData.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-MATCH (f:file)--&gt;(parent)
-WITH DISTINCT f, parent
-MATCH (f)-[*]-&gt;(c:case)&lt;--(demo:demographic)
- MATCH (s:study)&lt;-[*]-(c)&lt;--(diag:diagnosis)
-WHERE diag.disease_term IN ['Glioma']
-WITH DISTINCT f, parent, c, demo, diag, s
-RETURN coalesce(f.file_name, '') AS `File Name`, 
-        coalesce(labels(parent)[0], '') AS `Association`,
-        coalesce(f.file_description, '') AS `Description`,
-        coalesce(f.file_format, '') AS `Format`,
-        coalesce(f.file_size, '') AS `Size`,
-        coalesce(c.case_id, '') AS `Case ID`, 
-        coalesce(diag.disease_term,'') AS Diagnosis , 
-        coalesce(s.clinical_study_designation,'') AS `Study Code`</t>
-  </si>
-  <si>
-    <t>MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic)
-MATCH (c)&lt;--(diag:diagnosis)
-OPTIONAL MATCH (samp:sample)--&gt;(c)
-OPTIONAL MATCH (co:cohort)&lt;-[*]-(c)
- WITH DISTINCT c, s, demo, diag, co, demo.patient_age_at_enrollment AS age, demo.weight as weight
-WHERE diag.disease_term IN ['Glioma']
-RETURN  coalesce(c.case_id, '') AS `Case ID` ,
-        coalesce(s.clinical_study_designation, '') AS `Study Code` ,
-        coalesce(s.clinical_study_type, '') AS  `Study Type`,
-        coalesce(demo.breed, '') AS Breed ,
-        coalesce(diag.disease_term, '') AS Diagnosis ,
-        coalesce(diag.stage_of_disease, '') AS `Stage of Disease` ,
-  coalesce(CASE age % 1 WHEN 0 THEN apoc.convert.toInteger(age) ELSE age END, '') AS Age,
-       coalesce(demo.sex, '') AS Sex,
-       coalesce(demo.neutered_indicator, '') AS `Neutered Status`,
-coalesce(CASE weight % 1 WHEN 0 THEN apoc.convert.toInteger(weight) ELSE weight END, '') AS `Weight (kg)`,
-       coalesce(diag.best_response, '') AS `Response to Treatment`,
-       coalesce(co.cohort_description, '') AS `Cohort`
-order by c.case_id asc
-limit 30</t>
   </si>
   <si>
     <t>MATCH (p:program)&lt;--(s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic)
@@ -133,6 +77,111 @@
     count(distinct samp) AS Samples,
     count(distinct f) AS `Case Files`,
     count(distinct sf) AS `Study Files`</t>
+  </si>
+  <si>
+    <t>StudyFilesTab</t>
+  </si>
+  <si>
+    <t>MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic)
+MATCH (c)&lt;--(diag:diagnosis)
+  WHERE diag.disease_term IN ['Glioma']
+OPTIONAL MATCH (samp:sample)--&gt;(c)
+OPTIONAL MATCH (co:cohort)&lt;-[*]-(c)
+WITH DISTINCT c, s, demo, diag, co, demo.patient_age_at_enrollment AS age, demo.weight as weight
+RETURN  
+coalesce(c.case_id, '') AS `Case ID` ,
+        coalesce(s.clinical_study_designation, '') AS `Study Code` ,
+        coalesce(s.clinical_study_type, '') AS  `Study Type`,
+        coalesce(demo.breed, '') AS Breed ,
+        coalesce(diag.disease_term, '') AS Diagnosis ,
+        coalesce(diag.stage_of_disease, '') AS `Stage of Disease` ,
+  coalesce(CASE age % 1 WHEN 0 THEN apoc.convert.toInteger(age) ELSE age END, '') AS Age,
+       coalesce(demo.sex, '') AS Sex,
+       coalesce(demo.neutered_indicator, '') AS `Neutered Status`,
+coalesce(CASE weight % 1 WHEN 0 THEN apoc.convert.toInteger(weight) ELSE weight END, '') AS `Weight (kg)`,
+       coalesce(diag.best_response, '') AS `Response to Treatment`,
+       coalesce(co.cohort_description, '') AS `Cohort`
+order by c.case_id asc
+limit 100</t>
+  </si>
+  <si>
+    <t>MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic), (samp:sample)--&gt;(c)&lt;--(diag:diagnosis) 
+  WHERE diag.disease_term IN ['Glioma']
+WITH DISTINCT samp AS samp, c, demo, diag
+RETURN  coalesce(samp.sample_id, '') AS `Sample ID`, 
+        coalesce(c.case_id, '') AS `Case ID`, 
+        coalesce(demo.breed,'') AS Breed,
+        coalesce(diag.disease_term,'') AS Diagnosis, 
+        coalesce(samp.sample_site, '') AS `Sample Site`,
+        coalesce(samp.summarized_sample_type, '') AS `Sample Type`,
+        coalesce(samp.specific_sample_pathology, '') AS `Pathology/Morphology`,
+        coalesce(samp.tumor_grade, '') AS `Tumor Grade`,
+        coalesce(samp.sample_chronology, '') AS `Sample Chronology`,
+        coalesce(samp.percentage_tumor, '') AS `Percentage Tumor`,
+        coalesce(samp.necropsy_sample, '') AS `Necropsy Sample`,
+        coalesce(samp.sample_preservation, '') AS `Sample Preservation`
+Order By samp.sample_id_id ASC LIMIT 100</t>
+  </si>
+  <si>
+    <t>MATCH (f:file)--&gt;(parent)
+WITH DISTINCT f, parent
+MATCH (diag:diagnosis)--&gt;(c)
+OPTIONAL MATCH (f)-[*]-&gt;(samp:sample)
+MATCH (f)-[*]-&gt;(c:case)&lt;--(demo:demographic)
+  WHERE diag.disease_term IN ['Glioma']
+OPTIONAL MATCH (s:study)&lt;--(c)&lt;--(diag:diagnosis)&lt;-[*]-(samp)
+WITH
+        f, parent, c, demo, diag, s, samp,
+        ['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
+        toInteger(floor(log(f.file_size)/log(1024))) as i,
+        2 as precision
+WITH
+        f, parent, c, demo, diag, s, samp,
+        f.file_size /(1024^i) AS value, 
+        10^precision AS factor,
+        units[i] as unit
+WITH    
+        f, parent, c, demo, diag, s, samp, unit,
+        round(factor * value)/factor AS size
+RETURN 
+        coalesce(f.file_name, '') AS `File Name`,
+        coalesce(f.file_format, '') AS `Format`,
+        coalesce(f.file_type, '') AS `File Type`,
+       CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS Size,
+        coalesce(labels(parent)[0], '') AS `Association`,
+        coalesce(f.file_description, '') AS `Description`,
+        coalesce(samp.sample_id, '') AS `Sample ID`,
+        coalesce(c.case_id, '') AS `Case ID`,
+        coalesce(demo.breed,'') AS Breed ,
+        coalesce(diag.disease_term,'') AS Diagnosis
+Order By f.file_name ASC LIMIT 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  MATCH (f:file)--&gt;(s:study)
+MATCH (s)&lt;--(c:case)&lt;--(demo:demographic), (c)&lt;--(diag:diagnosis)
+  WHERE diag.disease_term IN ['Glioma']
+WITH DISTINCT f,  s, c, demo, diag
+WITH
+        f, c, demo, diag, s,
+        ['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
+        toInteger(floor(log(f.file_size)/log(1024))) as i,
+        2 as precision
+WITH    
+        f, c, demo, diag, s,
+        f.file_size /(1024^i) AS value, 10^precision AS factor,
+        units[i] as unit
+        WITH    
+        f,  c, demo, diag, s, unit,
+        round(factor * value)/factor AS size
+RETURN DISTINCT
+  coalesce(f.file_name, '') AS `File Name`,
+  coalesce(f.file_type, '') AS `File Type`,
+  coalesce("study", '') AS `Association`,
+  coalesce(f.file_description, '') AS `Description`,
+  coalesce(f.file_format, '') AS  Format,
+  CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS Size,
+  coalesce(s.clinical_study_designation,'') AS `Study Code`
+Order By f.file_name ASC LIMIT 100</t>
   </si>
 </sst>
 </file>
@@ -502,22 +551,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="87.7109375" customWidth="1"/>
-    <col min="3" max="3" width="75.7109375" customWidth="1"/>
-    <col min="4" max="4" width="70.28515625" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="87.5546875" customWidth="1"/>
+    <col min="3" max="3" width="75.6640625" customWidth="1"/>
+    <col min="4" max="4" width="70.33203125" customWidth="1"/>
+    <col min="5" max="5" width="28.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -534,7 +583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="330" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -542,47 +591,64 @@
         <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="3" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="4" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="403.2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
         <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/InputFiles/TC02_Canine_Filter_Diagnosis-Glioma.xlsx
+++ b/InputFiles/TC02_Canine_Filter_Diagnosis-Glioma.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohilz2\Commons_Automation\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7B54E6-65A1-406D-BAEC-90E1D341F0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9AE2E5-9857-4F65-9026-E9F93046D1BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16354" yWindow="-4860" windowWidth="33120" windowHeight="18120" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="startup" sheetId="1" r:id="rId1"/>
@@ -103,24 +103,6 @@
        coalesce(co.cohort_description, '') AS `Cohort`
 order by c.case_id asc
 limit 100</t>
-  </si>
-  <si>
-    <t>MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic), (samp:sample)--&gt;(c)&lt;--(diag:diagnosis) 
-  WHERE diag.disease_term IN ['Glioma']
-WITH DISTINCT samp AS samp, c, demo, diag
-RETURN  coalesce(samp.sample_id, '') AS `Sample ID`, 
-        coalesce(c.case_id, '') AS `Case ID`, 
-        coalesce(demo.breed,'') AS Breed,
-        coalesce(diag.disease_term,'') AS Diagnosis, 
-        coalesce(samp.sample_site, '') AS `Sample Site`,
-        coalesce(samp.summarized_sample_type, '') AS `Sample Type`,
-        coalesce(samp.specific_sample_pathology, '') AS `Pathology/Morphology`,
-        coalesce(samp.tumor_grade, '') AS `Tumor Grade`,
-        coalesce(samp.sample_chronology, '') AS `Sample Chronology`,
-        coalesce(samp.percentage_tumor, '') AS `Percentage Tumor`,
-        coalesce(samp.necropsy_sample, '') AS `Necropsy Sample`,
-        coalesce(samp.sample_preservation, '') AS `Sample Preservation`
-Order By samp.sample_id_id ASC LIMIT 100</t>
   </si>
   <si>
     <t>MATCH (f:file)--&gt;(parent)
@@ -182,6 +164,25 @@
   CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS Size,
   coalesce(s.clinical_study_designation,'') AS `Study Code`
 Order By f.file_name ASC LIMIT 100</t>
+  </si>
+  <si>
+    <t>MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic), (samp:sample)--&gt;(c)&lt;--(diag:diagnosis) 
+  WHERE diag.disease_term IN ['Glioma']
+WITH DISTINCT samp AS samp, c, demo, diag
+RETURN  coalesce(samp.sample_id, '') AS `Sample ID`, 
+        coalesce(c.case_id, '') AS `Case ID`, 
+        coalesce(demo.breed,'') AS Breed,
+        coalesce(diag.disease_term,'') AS Diagnosis, 
+        coalesce(samp.sample_site, '') AS `Sample Site`,
+        coalesce(samp.summarized_sample_type, '') AS `Sample Type`,
+        coalesce(samp.specific_sample_pathology, '') AS `Pathology/Morphology`,
+        coalesce(samp.tumor_grade, '') AS `Tumor Grade`,
+        coalesce(samp.sample_chronology, '') AS `Sample Chronology`,
+        coalesce(samp.percentage_tumor, '') AS `Percentage Tumor`,
+        coalesce(samp.necropsy_sample, '') AS `Necropsy Sample`,
+        coalesce(samp.sample_preservation, '') AS `Sample Preservation`
+Order By samp.sample_id ASC 
+LIMIT 100</t>
   </si>
 </sst>
 </file>
@@ -553,20 +554,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:E5"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="87.5546875" customWidth="1"/>
-    <col min="3" max="3" width="75.6640625" customWidth="1"/>
-    <col min="4" max="4" width="70.33203125" customWidth="1"/>
-    <col min="5" max="5" width="28.5546875" customWidth="1"/>
+    <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="87.54296875" customWidth="1"/>
+    <col min="3" max="3" width="75.6328125" customWidth="1"/>
+    <col min="4" max="4" width="70.36328125" customWidth="1"/>
+    <col min="5" max="5" width="28.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -583,7 +584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="333.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -600,12 +601,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -617,12 +618,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -634,12 +635,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="403.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="406" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
